--- a/Python/Webcam Record Excel/recordings/10 Straight Line K4=0.6.xlsx
+++ b/Python/Webcam Record Excel/recordings/10 Straight Line K4=0.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farhan\Documents\GitHub\TrajectoryTracking\Python\Webcam Record Excel\recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24395007-F203-48FF-A9E3-E5C3F1811180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1EFE27-7A02-4852-91A1-74650B8F0C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -148,7 +148,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -10984,7 +10984,7 @@
   <dimension ref="A1:I234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
